--- a/kniit2.xlsx
+++ b/kniit2.xlsx
@@ -11,47 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Шевченко Никита Максимович</t>
-  </si>
-  <si>
-    <t>+7(937)2249942</t>
-  </si>
-  <si>
-    <t>Киреев Артём Витальевич</t>
-  </si>
-  <si>
-    <t>+7(902)0485565</t>
-  </si>
-  <si>
-    <t>Винокурова Полина Александровна</t>
-  </si>
-  <si>
-    <t>+7(917)2135664</t>
-  </si>
-  <si>
-    <t>Воробьев Кирилл Дмитриевич</t>
-  </si>
-  <si>
-    <t>+7(987)8348281</t>
-  </si>
-  <si>
-    <t>Шерстова Ангелина Сергеевна</t>
-  </si>
-  <si>
-    <t>+7(906)3164661</t>
-  </si>
-  <si>
-    <t>Гусев Павел Борисович</t>
-  </si>
-  <si>
-    <t>+7(937)6385464</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,61 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>